--- a/Exceldata/testdata.xlsx
+++ b/Exceldata/testdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Automation\Github\etraffic\Exceldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Automation\Jenkins\etraffic_CI\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14625" windowHeight="3975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16050" windowHeight="2940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="transfer" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>5</t>
   </si>
@@ -604,11 +604,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -620,30 +618,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Exceldata/testdata.xlsx
+++ b/Exceldata/testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>5</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
@@ -604,9 +607,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -618,6 +623,18 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
